--- a/ergebnisse/phase_1/Risikoanalyse.xlsx
+++ b/ergebnisse/phase_1/Risikoanalyse.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCC9360-4D71-468E-AAE9-1E5937DBCF58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9302174-92B0-40DA-97A3-F14C7ADC64F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>Nr</t>
   </si>
@@ -44,6 +45,117 @@
   </si>
   <si>
     <t>Gegenmaßnahmen</t>
+  </si>
+  <si>
+    <t>Kategorien:</t>
+  </si>
+  <si>
+    <t>K = Kosten</t>
+  </si>
+  <si>
+    <t>Q = Qualität</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>K, T</t>
+  </si>
+  <si>
+    <t>Q, K, T</t>
+  </si>
+  <si>
+    <t>T, K</t>
+  </si>
+  <si>
+    <t>Q, T</t>
+  </si>
+  <si>
+    <t>Ausfall von wichtigen Personalressourcen</t>
+  </si>
+  <si>
+    <t>Überschreitung von Zeit und Budget</t>
+  </si>
+  <si>
+    <t>Mangelnde Management-Attention bei der GF</t>
+  </si>
+  <si>
+    <t>Mitwirkungsrechte des Betriebsrates werden berührt und nicht ausreichend behandelt</t>
+  </si>
+  <si>
+    <t>Umsetzung nicht beauftragter Anforderungen</t>
+  </si>
+  <si>
+    <t>Kommunikationsprobleme zwischen AG und AN (insbes. Anforderungen und Ziele)</t>
+  </si>
+  <si>
+    <t>Fehler in der Planungsphase</t>
+  </si>
+  <si>
+    <t>Neuer Lieferant für wichtige Komponenten</t>
+  </si>
+  <si>
+    <t>Zeitlicher Verzug</t>
+  </si>
+  <si>
+    <t>Verärgerter Kunde,
+zusätzliche Kosten</t>
+  </si>
+  <si>
+    <t>Insbesondere in kritischen Situationen keine Unterstützung durch die GF</t>
+  </si>
+  <si>
+    <t>Projekt kann kurz vor dem Abschluss gestoppt werden</t>
+  </si>
+  <si>
+    <t>Unbezahlter Aufwand</t>
+  </si>
+  <si>
+    <t>Streit um Abnahme</t>
+  </si>
+  <si>
+    <t>Zeitlicher Verzug und Budgetüberschreitung</t>
+  </si>
+  <si>
+    <t>Stillstand</t>
+  </si>
+  <si>
+    <t>hoch</t>
+  </si>
+  <si>
+    <t>sehr hoch</t>
+  </si>
+  <si>
+    <t>mittel</t>
+  </si>
+  <si>
+    <t>gering</t>
+  </si>
+  <si>
+    <t>Z = Zeit</t>
+  </si>
+  <si>
+    <t>Fachliche Risiken
+(-&gt; Arbeitspakete)</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Fehler bei der Projektplanung oder Projektmanagement;
+Unvorhergesehene Verzögerungen bei der Projektdurchführung</t>
+  </si>
+  <si>
+    <t>Klare Projektplanung (siehe Nr 7);
+Wählen eines geeigneten VGM und Halten daran;
+Verzögerungen frühzeitig entgegenwirken</t>
+  </si>
+  <si>
+    <t>Krankheit, Urlaub, etc.</t>
+  </si>
+  <si>
+    <t>Einstellen externer Kräfte schon bei geringeren Ausfällen;
+Mehr Zeit/Sprints einplanen</t>
   </si>
 </sst>
 </file>
@@ -79,13 +191,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -99,16 +251,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB78BA2E-95A2-40E0-9825-78DC4F07A432}" name="Tabelle1" displayName="Tabelle1" ref="A1:H51" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB78BA2E-95A2-40E0-9825-78DC4F07A432}" name="Tabelle1" displayName="Tabelle1" ref="A1:H51" totalsRowShown="0" dataDxfId="7">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{EFE9D6C3-BA62-411D-B367-F4976B23181D}" name="Nr"/>
-    <tableColumn id="2" xr3:uid="{CAEFEE30-9963-4A36-8E08-A7A925ADFD39}" name="Kategorie"/>
-    <tableColumn id="3" xr3:uid="{93AC5BDB-D599-4567-B026-27A79C048DAE}" name="Risikobezeichnung"/>
-    <tableColumn id="4" xr3:uid="{8073ED10-2B18-4A59-97DD-278FC9824AFF}" name="Mögliche Folgen / Tragweite"/>
-    <tableColumn id="5" xr3:uid="{F0B86906-4E29-4419-8E4A-4CE2B840B4D9}" name="Schadenshöhe"/>
-    <tableColumn id="6" xr3:uid="{DBDD93D3-B9F1-4E72-8252-E4059CC26A99}" name="Eintrittswahrscheinlichkeit"/>
-    <tableColumn id="7" xr3:uid="{C0E41586-C2E7-435C-A6FA-19AB5C2AE027}" name="Eintrittsindikatoren"/>
-    <tableColumn id="8" xr3:uid="{A3268568-F7FE-435A-A115-C9F57AE007BA}" name="Gegenmaßnahmen"/>
+    <tableColumn id="1" xr3:uid="{EFE9D6C3-BA62-411D-B367-F4976B23181D}" name="Nr" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{CAEFEE30-9963-4A36-8E08-A7A925ADFD39}" name="Kategorie" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{93AC5BDB-D599-4567-B026-27A79C048DAE}" name="Risikobezeichnung" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{8073ED10-2B18-4A59-97DD-278FC9824AFF}" name="Mögliche Folgen / Tragweite" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{F0B86906-4E29-4419-8E4A-4CE2B840B4D9}" name="Schadenshöhe" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{DBDD93D3-B9F1-4E72-8252-E4059CC26A99}" name="Eintrittswahrscheinlichkeit" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{C0E41586-C2E7-435C-A6FA-19AB5C2AE027}" name="Eintrittsindikatoren" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{A3268568-F7FE-435A-A115-C9F57AE007BA}" name="Gegenmaßnahmen" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -377,23 +529,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" customWidth="1"/>
+    <col min="8" max="8" width="56.44140625" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,260 +573,763 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="B11" s="1"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="B12" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="B14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="B16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="B17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="B25" s="1"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="B26" s="1"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="B27" s="1"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="B28" s="1"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="B29" s="1"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="B30" s="1"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="B31" s="1"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="B32" s="1"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="B33" s="1"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="B34" s="1"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="B35" s="1"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="B36" s="1"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="B37" s="1"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="B38" s="1"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="B39" s="1"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="B40" s="1"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="B41" s="1"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="B42" s="1"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="B43" s="1"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="B44" s="1"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="B45" s="1"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="B46" s="1"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="B47" s="1"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="B48" s="1"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="B49" s="1"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="B50" s="1"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DCAAF24A-1B9A-4C52-B768-421F8FE8A0F8}">
+          <x14:formula1>
+            <xm:f>Tabelle2!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:F51</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8F56BA-5252-42E8-90BB-05096D38BFAB}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ergebnisse/phase_1/Risikoanalyse.xlsx
+++ b/ergebnisse/phase_1/Risikoanalyse.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9302174-92B0-40DA-97A3-F14C7ADC64F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7109DDDA-562A-4C0A-9DE0-D1A3B1B5EFB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>Nr</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>Streit um Abnahme</t>
-  </si>
-  <si>
-    <t>Zeitlicher Verzug und Budgetüberschreitung</t>
   </si>
   <si>
     <t>Stillstand</t>
@@ -156,6 +153,22 @@
   <si>
     <t>Einstellen externer Kräfte schon bei geringeren Ausfällen;
 Mehr Zeit/Sprints einplanen</t>
+  </si>
+  <si>
+    <t>Betriebsrat ausreichend in das Projekt einbeziehen</t>
+  </si>
+  <si>
+    <t>Ungenaues Stellen oder Lesen der Anforderungen</t>
+  </si>
+  <si>
+    <t>Genaues Auseinandersetzen mit dem Auftraggeber, bis Anforderungen ausreichend eindeutig formuliert sind;
+Vier-Augen-Prinzip einsetzen</t>
+  </si>
+  <si>
+    <t>Vier-Augen-Prinzip</t>
+  </si>
+  <si>
+    <t>Zeitlicher Verzug, Budgetüberschreitung, schlechteres Ergebnis</t>
   </si>
 </sst>
 </file>
@@ -217,7 +230,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -226,10 +239,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -251,14 +264,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB78BA2E-95A2-40E0-9825-78DC4F07A432}" name="Tabelle1" displayName="Tabelle1" ref="A1:H51" totalsRowShown="0" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB78BA2E-95A2-40E0-9825-78DC4F07A432}" name="Tabelle1" displayName="Tabelle1" ref="A1:H51" totalsRowShown="0" dataDxfId="8">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{EFE9D6C3-BA62-411D-B367-F4976B23181D}" name="Nr" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{CAEFEE30-9963-4A36-8E08-A7A925ADFD39}" name="Kategorie" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{93AC5BDB-D599-4567-B026-27A79C048DAE}" name="Risikobezeichnung" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{8073ED10-2B18-4A59-97DD-278FC9824AFF}" name="Mögliche Folgen / Tragweite" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{EFE9D6C3-BA62-411D-B367-F4976B23181D}" name="Nr" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{CAEFEE30-9963-4A36-8E08-A7A925ADFD39}" name="Kategorie" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{93AC5BDB-D599-4567-B026-27A79C048DAE}" name="Risikobezeichnung" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{8073ED10-2B18-4A59-97DD-278FC9824AFF}" name="Mögliche Folgen / Tragweite" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{F0B86906-4E29-4419-8E4A-4CE2B840B4D9}" name="Schadenshöhe" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{DBDD93D3-B9F1-4E72-8252-E4059CC26A99}" name="Eintrittswahrscheinlichkeit" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{DBDD93D3-B9F1-4E72-8252-E4059CC26A99}" name="Eintrittswahrscheinlichkeit" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{C0E41586-C2E7-435C-A6FA-19AB5C2AE027}" name="Eintrittsindikatoren" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{A3268568-F7FE-435A-A115-C9F57AE007BA}" name="Gegenmaßnahmen" dataDxfId="0"/>
   </tableColumns>
@@ -532,7 +545,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,16 +600,16 @@
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="J2" t="s">
         <v>8</v>
@@ -616,19 +629,19 @@
         <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="G3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -645,10 +658,10 @@
         <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="3"/>
@@ -670,18 +683,20 @@
         <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="J5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -695,13 +710,17 @@
         <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -717,15 +736,17 @@
         <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H7" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -736,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="3"/>
@@ -758,13 +779,13 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="3"/>
@@ -777,10 +798,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1311,22 +1332,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/ergebnisse/phase_1/Risikoanalyse.xlsx
+++ b/ergebnisse/phase_1/Risikoanalyse.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9302174-92B0-40DA-97A3-F14C7ADC64F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EFDB0E-85FB-467F-B9EF-B75003329BEE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,88 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{3F22ACE3-50A1-441F-BD01-8338D40D3FAE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Einbindung der GF fest einplanen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{B9139D0C-C960-4A79-B1EE-92542C3120B0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Einbeziehung/Informieren des Betriebsrates</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{32F6125D-63F5-4B9B-B901-E27627B1312F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Aufstellen eines Kommunikationsplans</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
@@ -162,13 +244,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -217,7 +312,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -226,10 +321,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -251,14 +346,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB78BA2E-95A2-40E0-9825-78DC4F07A432}" name="Tabelle1" displayName="Tabelle1" ref="A1:H51" totalsRowShown="0" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB78BA2E-95A2-40E0-9825-78DC4F07A432}" name="Tabelle1" displayName="Tabelle1" ref="A1:H51" totalsRowShown="0" dataDxfId="8">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{EFE9D6C3-BA62-411D-B367-F4976B23181D}" name="Nr" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{CAEFEE30-9963-4A36-8E08-A7A925ADFD39}" name="Kategorie" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{93AC5BDB-D599-4567-B026-27A79C048DAE}" name="Risikobezeichnung" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{8073ED10-2B18-4A59-97DD-278FC9824AFF}" name="Mögliche Folgen / Tragweite" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{EFE9D6C3-BA62-411D-B367-F4976B23181D}" name="Nr" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{CAEFEE30-9963-4A36-8E08-A7A925ADFD39}" name="Kategorie" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{93AC5BDB-D599-4567-B026-27A79C048DAE}" name="Risikobezeichnung" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{8073ED10-2B18-4A59-97DD-278FC9824AFF}" name="Mögliche Folgen / Tragweite" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{F0B86906-4E29-4419-8E4A-4CE2B840B4D9}" name="Schadenshöhe" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{DBDD93D3-B9F1-4E72-8252-E4059CC26A99}" name="Eintrittswahrscheinlichkeit" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{DBDD93D3-B9F1-4E72-8252-E4059CC26A99}" name="Eintrittswahrscheinlichkeit" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{C0E41586-C2E7-435C-A6FA-19AB5C2AE027}" name="Eintrittsindikatoren" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{A3268568-F7FE-435A-A115-C9F57AE007BA}" name="Gegenmaßnahmen" dataDxfId="0"/>
   </tableColumns>
@@ -528,26 +623,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" customWidth="1"/>
-    <col min="8" max="8" width="56.44140625" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="56.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -602,7 +697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -631,7 +726,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -656,7 +751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -681,7 +776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -703,7 +798,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -725,7 +820,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -747,7 +842,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -769,7 +864,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -787,7 +882,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -799,7 +894,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -811,7 +906,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -823,7 +918,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -835,7 +930,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -847,7 +942,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -859,7 +954,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -871,7 +966,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -883,7 +978,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -895,7 +990,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -907,7 +1002,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -919,7 +1014,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -931,7 +1026,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -943,7 +1038,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -955,7 +1050,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -967,7 +1062,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -979,7 +1074,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -991,7 +1086,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1003,7 +1098,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1015,7 +1110,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1027,7 +1122,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1039,7 +1134,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1051,7 +1146,7 @@
       <c r="G32" s="4"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1063,7 +1158,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1075,7 +1170,7 @@
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1087,7 +1182,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1099,7 +1194,7 @@
       <c r="G36" s="4"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1111,7 +1206,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1123,7 +1218,7 @@
       <c r="G38" s="4"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1135,7 +1230,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1147,7 +1242,7 @@
       <c r="G40" s="4"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1159,7 +1254,7 @@
       <c r="G41" s="4"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1171,7 +1266,7 @@
       <c r="G42" s="4"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1183,7 +1278,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1195,7 +1290,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1207,7 +1302,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1219,7 +1314,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1231,7 +1326,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1243,7 +1338,7 @@
       <c r="G48" s="4"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1255,7 +1350,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1267,7 +1362,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1281,8 +1376,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1307,24 +1403,24 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>

--- a/ergebnisse/phase_1/Risikoanalyse.xlsx
+++ b/ergebnisse/phase_1/Risikoanalyse.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7109DDDA-562A-4C0A-9DE0-D1A3B1B5EFB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8860D7F3-3F6D-45AD-B8AA-5F07B476E16A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>Nr</t>
   </si>
@@ -68,9 +68,6 @@
     <t>T, K</t>
   </si>
   <si>
-    <t>Q, T</t>
-  </si>
-  <si>
     <t>Ausfall von wichtigen Personalressourcen</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
   </si>
   <si>
     <t>Fehler in der Planungsphase</t>
-  </si>
-  <si>
-    <t>Neuer Lieferant für wichtige Komponenten</t>
   </si>
   <si>
     <t>Zeitlicher Verzug</t>
@@ -112,9 +106,6 @@
   </si>
   <si>
     <t>Streit um Abnahme</t>
-  </si>
-  <si>
-    <t>Stillstand</t>
   </si>
   <si>
     <t>hoch</t>
@@ -169,6 +160,14 @@
   </si>
   <si>
     <t>Zeitlicher Verzug, Budgetüberschreitung, schlechteres Ergebnis</t>
+  </si>
+  <si>
+    <t>Wählen eines geeigneten VGM und Halten daran;
+Klare Projektplanung;
+Fehler frühzeitig erkennen</t>
+  </si>
+  <si>
+    <t>Ungenaue Analyse der Risiken, Stakeholder, Vorgehensmodelle, …</t>
   </si>
 </sst>
 </file>
@@ -545,7 +544,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,22 +593,22 @@
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
         <v>8</v>
@@ -623,25 +622,25 @@
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
         <v>32</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -652,16 +651,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="3"/>
@@ -677,20 +676,20 @@
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
         <v>10</v>
@@ -704,22 +703,22 @@
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -730,20 +729,20 @@
         <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -754,55 +753,49 @@
         <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="4"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="4"/>
@@ -1297,7 +1290,7 @@
       <c r="D51" s="3"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="4"/>
+      <c r="G51" s="2"/>
       <c r="H51" s="3"/>
     </row>
   </sheetData>
@@ -1332,22 +1325,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/ergebnisse/phase_1/Risikoanalyse.xlsx
+++ b/ergebnisse/phase_1/Risikoanalyse.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8860D7F3-3F6D-45AD-B8AA-5F07B476E16A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA9E8A5-2A76-43EF-A932-9C40F49965AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>Nr</t>
   </si>
@@ -156,9 +156,6 @@
 Vier-Augen-Prinzip einsetzen</t>
   </si>
   <si>
-    <t>Vier-Augen-Prinzip</t>
-  </si>
-  <si>
     <t>Zeitlicher Verzug, Budgetüberschreitung, schlechteres Ergebnis</t>
   </si>
   <si>
@@ -168,6 +165,13 @@
   </si>
   <si>
     <t>Ungenaue Analyse der Risiken, Stakeholder, Vorgehensmodelle, …</t>
+  </si>
+  <si>
+    <t>Einbindung der Geschäftsführung fest einplanen</t>
+  </si>
+  <si>
+    <t>Vier-Augen-Prinzip
+Aufstellen eines Kommunikationsplans</t>
   </si>
 </sst>
 </file>
@@ -544,7 +548,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,7 +667,9 @@
         <v>31</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="J4" t="s">
         <v>9</v>
       </c>
@@ -742,7 +748,7 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -756,7 +762,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>28</v>
@@ -765,10 +771,10 @@
         <v>31</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">

--- a/ergebnisse/phase_1/Risikoanalyse.xlsx
+++ b/ergebnisse/phase_1/Risikoanalyse.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA9E8A5-2A76-43EF-A932-9C40F49965AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FC3D5E-F05B-4190-AFD9-24EBCF9DEEC5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>Nr</t>
   </si>
@@ -45,15 +45,6 @@
   </si>
   <si>
     <t>Gegenmaßnahmen</t>
-  </si>
-  <si>
-    <t>Kategorien:</t>
-  </si>
-  <si>
-    <t>K = Kosten</t>
-  </si>
-  <si>
-    <t>Q = Qualität</t>
   </si>
   <si>
     <t>T</t>
@@ -120,9 +111,6 @@
     <t>gering</t>
   </si>
   <si>
-    <t>Z = Zeit</t>
-  </si>
-  <si>
     <t>Fachliche Risiken
 (-&gt; Arbeitspakete)</t>
   </si>
@@ -134,52 +122,127 @@
 Unvorhergesehene Verzögerungen bei der Projektdurchführung</t>
   </si>
   <si>
-    <t>Klare Projektplanung (siehe Nr 7);
-Wählen eines geeigneten VGM und Halten daran;
-Verzögerungen frühzeitig entgegenwirken</t>
-  </si>
-  <si>
     <t>Krankheit, Urlaub, etc.</t>
   </si>
   <si>
-    <t>Einstellen externer Kräfte schon bei geringeren Ausfällen;
-Mehr Zeit/Sprints einplanen</t>
-  </si>
-  <si>
-    <t>Betriebsrat ausreichend in das Projekt einbeziehen</t>
-  </si>
-  <si>
     <t>Ungenaues Stellen oder Lesen der Anforderungen</t>
   </si>
   <si>
-    <t>Genaues Auseinandersetzen mit dem Auftraggeber, bis Anforderungen ausreichend eindeutig formuliert sind;
-Vier-Augen-Prinzip einsetzen</t>
-  </si>
-  <si>
     <t>Zeitlicher Verzug, Budgetüberschreitung, schlechteres Ergebnis</t>
   </si>
   <si>
-    <t>Wählen eines geeigneten VGM und Halten daran;
-Klare Projektplanung;
-Fehler frühzeitig erkennen</t>
-  </si>
-  <si>
     <t>Ungenaue Analyse der Risiken, Stakeholder, Vorgehensmodelle, …</t>
   </si>
   <si>
-    <t>Einbindung der Geschäftsführung fest einplanen</t>
-  </si>
-  <si>
-    <t>Vier-Augen-Prinzip
-Aufstellen eines Kommunikationsplans</t>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kategorien:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+T = Zeit
+K = Kosten
+Q = Qualität</t>
+    </r>
+  </si>
+  <si>
+    <t>- Einbindung der Geschäftsführung fest einplanen</t>
+  </si>
+  <si>
+    <t>- Betriebsrat ausreichend in das Projekt einbeziehen</t>
+  </si>
+  <si>
+    <t>- Auswahl und Einhaltung eines geeigneten Vorgehensmodells
+- Klare Projektplanung
+- Fehler frühzeitig erkennen</t>
+  </si>
+  <si>
+    <t>- Klare Projektplanung (siehe Nr 7)
+- Auswahl und Einhaltung eines geeigneten Vorgehensmodells
+- Regelmäßige Überprüfung von Soll- und Ist-Zustand
+- Mehr Zeit/Sprints einplanen</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Vier-Augen-Prinzip einsetzen
+- Genaues Auseinandersetzen mit dem Auftraggeber, bis Anforderungen ausreichend eindeutig formuliert sind
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Soll und Ist checken</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Vier-Augen-Prinzip einsetzen
+- Aufstellen eines Kommunikationsplans
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Soll und Ist checken</t>
+    </r>
+  </si>
+  <si>
+    <t>Warten auf Input oder Beteiligung auf Auftraggeberseite</t>
+  </si>
+  <si>
+    <t>- Einstellen externer Kräfte schon bei geringeren Ausfällen
+- Einplanen von Reservebedarf
+- Mehr Zeit/Sprints einplanen</t>
+  </si>
+  <si>
+    <t>Kommunikationsprobleme in den Entwicklungsteams</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -207,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -220,6 +283,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -267,7 +336,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB78BA2E-95A2-40E0-9825-78DC4F07A432}" name="Tabelle1" displayName="Tabelle1" ref="A1:H51" totalsRowShown="0" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB78BA2E-95A2-40E0-9825-78DC4F07A432}" name="Tabelle1" displayName="Tabelle1" ref="A1:H11" totalsRowShown="0" dataDxfId="8">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{EFE9D6C3-BA62-411D-B367-F4976B23181D}" name="Nr" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{CAEFEE30-9963-4A36-8E08-A7A925ADFD39}" name="Kategorie" dataDxfId="6"/>
@@ -548,7 +617,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,166 +658,151 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H5" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="3" t="s">
-        <v>46</v>
+        <v>27</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -756,25 +810,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -782,47 +834,63 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="4"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -832,9 +900,7 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -844,9 +910,7 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -856,9 +920,7 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -868,9 +930,7 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
+      <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -880,9 +940,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -892,9 +950,7 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
+      <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -904,9 +960,7 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -916,9 +970,7 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -928,9 +980,7 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
+      <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -940,9 +990,7 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -952,9 +1000,7 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -964,9 +1010,7 @@
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -976,9 +1020,7 @@
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -988,9 +1030,7 @@
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1000,9 +1040,7 @@
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
+      <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1012,9 +1050,7 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
+      <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1024,9 +1060,7 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1036,9 +1070,7 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
+      <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1048,9 +1080,7 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
+      <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1060,9 +1090,7 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
+      <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1072,9 +1100,7 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
+      <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1084,9 +1110,7 @@
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
+      <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1096,9 +1120,7 @@
       <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
+      <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1108,9 +1130,7 @@
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
+      <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1120,9 +1140,7 @@
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
+      <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1132,9 +1150,7 @@
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
+      <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1144,9 +1160,7 @@
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
+      <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1156,9 +1170,7 @@
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
+      <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1168,9 +1180,7 @@
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
+      <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1180,9 +1190,7 @@
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
+      <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -1192,9 +1200,7 @@
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
+      <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1204,9 +1210,7 @@
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
+      <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -1216,9 +1220,7 @@
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
+      <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1228,9 +1230,7 @@
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
+      <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -1240,9 +1240,7 @@
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
+      <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -1252,9 +1250,7 @@
       <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
+      <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -1264,9 +1260,7 @@
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
+      <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -1276,9 +1270,7 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
+      <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -1288,21 +1280,20 @@
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
+      <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
+      <c r="G51" s="4"/>
       <c r="H51" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1311,7 +1302,7 @@
           <x14:formula1>
             <xm:f>Tabelle2!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:F51</xm:sqref>
+          <xm:sqref>E2:F11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1331,22 +1322,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/ergebnisse/phase_1/Risikoanalyse.xlsx
+++ b/ergebnisse/phase_1/Risikoanalyse.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FC3D5E-F05B-4190-AFD9-24EBCF9DEEC5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA9E8A5-2A76-43EF-A932-9C40F49965AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>Nr</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t>Gegenmaßnahmen</t>
+  </si>
+  <si>
+    <t>Kategorien:</t>
+  </si>
+  <si>
+    <t>K = Kosten</t>
+  </si>
+  <si>
+    <t>Q = Qualität</t>
   </si>
   <si>
     <t>T</t>
@@ -111,6 +120,9 @@
     <t>gering</t>
   </si>
   <si>
+    <t>Z = Zeit</t>
+  </si>
+  <si>
     <t>Fachliche Risiken
 (-&gt; Arbeitspakete)</t>
   </si>
@@ -122,127 +134,52 @@
 Unvorhergesehene Verzögerungen bei der Projektdurchführung</t>
   </si>
   <si>
+    <t>Klare Projektplanung (siehe Nr 7);
+Wählen eines geeigneten VGM und Halten daran;
+Verzögerungen frühzeitig entgegenwirken</t>
+  </si>
+  <si>
     <t>Krankheit, Urlaub, etc.</t>
   </si>
   <si>
+    <t>Einstellen externer Kräfte schon bei geringeren Ausfällen;
+Mehr Zeit/Sprints einplanen</t>
+  </si>
+  <si>
+    <t>Betriebsrat ausreichend in das Projekt einbeziehen</t>
+  </si>
+  <si>
     <t>Ungenaues Stellen oder Lesen der Anforderungen</t>
   </si>
   <si>
+    <t>Genaues Auseinandersetzen mit dem Auftraggeber, bis Anforderungen ausreichend eindeutig formuliert sind;
+Vier-Augen-Prinzip einsetzen</t>
+  </si>
+  <si>
     <t>Zeitlicher Verzug, Budgetüberschreitung, schlechteres Ergebnis</t>
   </si>
   <si>
+    <t>Wählen eines geeigneten VGM und Halten daran;
+Klare Projektplanung;
+Fehler frühzeitig erkennen</t>
+  </si>
+  <si>
     <t>Ungenaue Analyse der Risiken, Stakeholder, Vorgehensmodelle, …</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Kategorien:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-T = Zeit
-K = Kosten
-Q = Qualität</t>
-    </r>
-  </si>
-  <si>
-    <t>- Einbindung der Geschäftsführung fest einplanen</t>
-  </si>
-  <si>
-    <t>- Betriebsrat ausreichend in das Projekt einbeziehen</t>
-  </si>
-  <si>
-    <t>- Auswahl und Einhaltung eines geeigneten Vorgehensmodells
-- Klare Projektplanung
-- Fehler frühzeitig erkennen</t>
-  </si>
-  <si>
-    <t>- Klare Projektplanung (siehe Nr 7)
-- Auswahl und Einhaltung eines geeigneten Vorgehensmodells
-- Regelmäßige Überprüfung von Soll- und Ist-Zustand
-- Mehr Zeit/Sprints einplanen</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- Vier-Augen-Prinzip einsetzen
-- Genaues Auseinandersetzen mit dem Auftraggeber, bis Anforderungen ausreichend eindeutig formuliert sind
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Soll und Ist checken</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- Vier-Augen-Prinzip einsetzen
-- Aufstellen eines Kommunikationsplans
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Soll und Ist checken</t>
-    </r>
-  </si>
-  <si>
-    <t>Warten auf Input oder Beteiligung auf Auftraggeberseite</t>
-  </si>
-  <si>
-    <t>- Einstellen externer Kräfte schon bei geringeren Ausfällen
-- Einplanen von Reservebedarf
-- Mehr Zeit/Sprints einplanen</t>
-  </si>
-  <si>
-    <t>Kommunikationsprobleme in den Entwicklungsteams</t>
+    <t>Einbindung der Geschäftsführung fest einplanen</t>
+  </si>
+  <si>
+    <t>Vier-Augen-Prinzip
+Aufstellen eines Kommunikationsplans</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -270,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -283,12 +220,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -336,7 +267,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB78BA2E-95A2-40E0-9825-78DC4F07A432}" name="Tabelle1" displayName="Tabelle1" ref="A1:H11" totalsRowShown="0" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB78BA2E-95A2-40E0-9825-78DC4F07A432}" name="Tabelle1" displayName="Tabelle1" ref="A1:H51" totalsRowShown="0" dataDxfId="8">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{EFE9D6C3-BA62-411D-B367-F4976B23181D}" name="Nr" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{CAEFEE30-9963-4A36-8E08-A7A925ADFD39}" name="Kategorie" dataDxfId="6"/>
@@ -617,7 +548,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,151 +589,166 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -810,23 +756,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -834,63 +782,47 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="4"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -900,7 +832,9 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -910,7 +844,9 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -920,7 +856,9 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
       <c r="B15" s="1"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -930,7 +868,9 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -940,7 +880,9 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
       <c r="B17" s="1"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -950,7 +892,9 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
       <c r="B18" s="1"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -960,7 +904,9 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
       <c r="B19" s="1"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -970,7 +916,9 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -980,7 +928,9 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
       <c r="B21" s="1"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -990,7 +940,9 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
       <c r="B22" s="1"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1000,7 +952,9 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
       <c r="B23" s="1"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1010,7 +964,9 @@
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
       <c r="B24" s="1"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1020,7 +976,9 @@
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
       <c r="B25" s="1"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1030,7 +988,9 @@
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
       <c r="B26" s="1"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1040,7 +1000,9 @@
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
       <c r="B27" s="1"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1050,7 +1012,9 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
       <c r="B28" s="1"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1060,7 +1024,9 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
       <c r="B29" s="1"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1070,7 +1036,9 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
       <c r="B30" s="1"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1080,7 +1048,9 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
       <c r="B31" s="1"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1090,7 +1060,9 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
       <c r="B32" s="1"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1100,7 +1072,9 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
       <c r="B33" s="1"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1110,7 +1084,9 @@
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
       <c r="B34" s="1"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1120,7 +1096,9 @@
       <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
       <c r="B35" s="1"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1130,7 +1108,9 @@
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
       <c r="B36" s="1"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1140,7 +1120,9 @@
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
       <c r="B37" s="1"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1150,7 +1132,9 @@
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
       <c r="B38" s="1"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1160,7 +1144,9 @@
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
       <c r="B39" s="1"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1170,7 +1156,9 @@
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
       <c r="B40" s="1"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1180,7 +1168,9 @@
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
       <c r="B41" s="1"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1190,7 +1180,9 @@
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -1200,7 +1192,9 @@
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
       <c r="B43" s="1"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1210,7 +1204,9 @@
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
       <c r="B44" s="1"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -1220,7 +1216,9 @@
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
       <c r="B45" s="1"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1230,7 +1228,9 @@
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
       <c r="B46" s="1"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -1240,7 +1240,9 @@
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
       <c r="B47" s="1"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -1250,7 +1252,9 @@
       <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
       <c r="B48" s="1"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -1260,7 +1264,9 @@
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
       <c r="B49" s="1"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -1270,7 +1276,9 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
       <c r="B50" s="1"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -1280,20 +1288,21 @@
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
       <c r="B51" s="1"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="4"/>
+      <c r="G51" s="2"/>
       <c r="H51" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1302,7 +1311,7 @@
           <x14:formula1>
             <xm:f>Tabelle2!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:F11</xm:sqref>
+          <xm:sqref>E2:F51</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1322,22 +1331,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/ergebnisse/phase_1/Risikoanalyse.xlsx
+++ b/ergebnisse/phase_1/Risikoanalyse.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FC3D5E-F05B-4190-AFD9-24EBCF9DEEC5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B9BF7E-1F1A-4EBA-B549-634D0F3546F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="93">
   <si>
     <t>Nr</t>
   </si>
@@ -109,13 +109,6 @@
   </si>
   <si>
     <t>gering</t>
-  </si>
-  <si>
-    <t>Fachliche Risiken
-(-&gt; Arbeitspakete)</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t>Fehler bei der Projektplanung oder Projektmanagement;
@@ -220,6 +213,153 @@
   </si>
   <si>
     <t>Kommunikationsprobleme in den Entwicklungsteams</t>
+  </si>
+  <si>
+    <t>Unzureichende Informationen des Auftraggebers</t>
+  </si>
+  <si>
+    <t>Der Code und die Dokumentation der Internet-Agentur werden nicht ausreichend analysiert</t>
+  </si>
+  <si>
+    <t>Es werden Aspekte des Ist-Standes übersehen bzw. nicht im End-Dokument aufgeführt</t>
+  </si>
+  <si>
+    <t>Unzureichende Dokumentation und/oder fehlerhafter Code des bisherigen Intranets</t>
+  </si>
+  <si>
+    <t>Anforderungserhebung nicht vollständig</t>
+  </si>
+  <si>
+    <t>Wichtige Details werden übersehen und führen später im Projekt zu Problemen</t>
+  </si>
+  <si>
+    <t>Die geplante Hardware ist nicht in ausreichendem Ausmaß verfügbar</t>
+  </si>
+  <si>
+    <t>Das Berechtigungskonzept beinhaltet nicht alle notwendigen Berechtigungen</t>
+  </si>
+  <si>
+    <t>Eine Berechtigung hat Zugriff auf nicht notwendige / "verbotene" Bereiche</t>
+  </si>
+  <si>
+    <t>"Ewige" Kompromisssuche zwischen Auftraggeber und Auftragnehmer</t>
+  </si>
+  <si>
+    <t>Die Arbeitspakete sind nicht fein genug definiert</t>
+  </si>
+  <si>
+    <t>Die Abhängigkeiten der Aufgaben im Product-Backlog werden nicht vollständig herausgearbeitet</t>
+  </si>
+  <si>
+    <t>Die Abhängigkeiten im Product-Backlog werden missachtet</t>
+  </si>
+  <si>
+    <t>Auswahl von zu vielen Product-Backlog-Einträgen</t>
+  </si>
+  <si>
+    <t>Unregelmäßig durchgeführtes Refinement</t>
+  </si>
+  <si>
+    <t>Veralteter Backlog, ungeeignet für die Planung von Sprints</t>
+  </si>
+  <si>
+    <t>Kein offenes, konstruktives Feedback im Sprint-Review</t>
+  </si>
+  <si>
+    <t>Keine eindeutige Abgrenzung der Kernsysteme zu Nebensystemen</t>
+  </si>
+  <si>
+    <t>Unzureichender Funktionsumfang der Verwaltungsprozesse</t>
+  </si>
+  <si>
+    <t>Änderungen der Anforderungen während der Implementierungsphase</t>
+  </si>
+  <si>
+    <t>Die Implementierung dauert länger als geplant</t>
+  </si>
+  <si>
+    <t>Unvollständiges Betriebshandbuch</t>
+  </si>
+  <si>
+    <t>Betriebshandbuch ist nicht rechtzeitig zum Rollout fertig</t>
+  </si>
+  <si>
+    <t>Testplan ist nicht ausreichend fein definiert</t>
+  </si>
+  <si>
+    <t>Testfälle sind nicht eindeutig definiert</t>
+  </si>
+  <si>
+    <t>Die Hardware hat nicht die erforderliche Performance für eine Test-Umgebung</t>
+  </si>
+  <si>
+    <t>Testziel unrealistisch definiert</t>
+  </si>
+  <si>
+    <t>Tests unvollständig dokumentiert</t>
+  </si>
+  <si>
+    <t>Testberichte unvollständig</t>
+  </si>
+  <si>
+    <t>Software lässt sich durch Hardwarefehler nicht installieren</t>
+  </si>
+  <si>
+    <t>Software ist inkompatibel</t>
+  </si>
+  <si>
+    <t>Es werden nicht alle Fehler behoben</t>
+  </si>
+  <si>
+    <t>Neue Fehler bei Fehlerbehebung</t>
+  </si>
+  <si>
+    <t>Das Schulungskonzept deckt nicht alle nötigen Features ab</t>
+  </si>
+  <si>
+    <t>Mitarbeiter werden nicht ausreichend geschult</t>
+  </si>
+  <si>
+    <t>Das Schulungskonzept ist qualitativ nicht ausreichend</t>
+  </si>
+  <si>
+    <t>Die Schulung wird nicht nach dem Schulungskonzept durchgeführt</t>
+  </si>
+  <si>
+    <t>Die Schulung ist nicht hilfreich für die Mitarbeiter</t>
+  </si>
+  <si>
+    <t>Nutzerakzeptanzumfrage erreicht nicht alle Mitarbeiter</t>
+  </si>
+  <si>
+    <t>Umfrage wird zu früh ausgewertet</t>
+  </si>
+  <si>
+    <t>Zielgruppe der Umfrage zu klein</t>
+  </si>
+  <si>
+    <t>Fehler oder fehlende Aufzeichnungen bei der Messung der Performanceziele</t>
+  </si>
+  <si>
+    <t>Werte sind verfälscht</t>
+  </si>
+  <si>
+    <t>Nicht genug Zeit und Aufwand für Projektmanagement</t>
+  </si>
+  <si>
+    <t>Es findet kein ausgereiftes Projektmanagement statt</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Q, T</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Q, K</t>
   </si>
 </sst>
 </file>
@@ -270,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -290,6 +430,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -336,7 +492,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB78BA2E-95A2-40E0-9825-78DC4F07A432}" name="Tabelle1" displayName="Tabelle1" ref="A1:H11" totalsRowShown="0" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB78BA2E-95A2-40E0-9825-78DC4F07A432}" name="Tabelle1" displayName="Tabelle1" ref="A1:H51" totalsRowShown="0" dataDxfId="8">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{EFE9D6C3-BA62-411D-B367-F4976B23181D}" name="Nr" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{CAEFEE30-9963-4A36-8E08-A7A925ADFD39}" name="Kategorie" dataDxfId="6"/>
@@ -614,16 +770,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.21875" bestFit="1" customWidth="1"/>
@@ -678,10 +834,10 @@
         <v>27</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -692,7 +848,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>19</v>
@@ -722,13 +878,13 @@
         <v>27</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -752,7 +908,7 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -760,7 +916,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>15</v>
@@ -776,7 +932,7 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -799,10 +955,10 @@
         <v>27</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -826,7 +982,7 @@
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -837,7 +993,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
@@ -856,7 +1012,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>25</v>
@@ -865,10 +1021,10 @@
         <v>28</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -879,415 +1035,1059 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="3"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="3"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="3"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="3"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="3"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="3"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="3"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="3"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="3"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="3"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="3"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="3"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="D35" s="3"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="3"/>
+      <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="3"/>
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="D36" s="3"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="3"/>
+      <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="D37" s="3"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="3"/>
+      <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="D38" s="3"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="3"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="D39" s="3"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="3"/>
+      <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="3"/>
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D40" s="3"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="3"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="D41" s="3"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="3"/>
+      <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="3"/>
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="D42" s="3"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="3"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="D44" s="3"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="3"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="D45" s="3"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="3"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="D46" s="3"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="3"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="D47" s="3"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="3"/>
+      <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="3"/>
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="D48" s="3"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="3"/>
+      <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="3"/>
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="D49" s="3"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="3"/>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1302,7 +2102,7 @@
           <x14:formula1>
             <xm:f>Tabelle2!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:F11</xm:sqref>
+          <xm:sqref>E2:F51</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/ergebnisse/phase_1/Risikoanalyse.xlsx
+++ b/ergebnisse/phase_1/Risikoanalyse.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B9BF7E-1F1A-4EBA-B549-634D0F3546F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95F2C33-DE57-4A6B-9C8A-13F134569581}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="101">
   <si>
     <t>Nr</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>Zeitlicher Verzug, Budgetüberschreitung, schlechteres Ergebnis</t>
-  </si>
-  <si>
-    <t>Ungenaue Analyse der Risiken, Stakeholder, Vorgehensmodelle, …</t>
   </si>
   <si>
     <r>
@@ -164,209 +161,212 @@
 - Fehler frühzeitig erkennen</t>
   </si>
   <si>
-    <t>- Klare Projektplanung (siehe Nr 7)
+    <t>Warten auf Input oder Beteiligung auf Auftraggeberseite</t>
+  </si>
+  <si>
+    <t>- Einstellen externer Kräfte schon bei geringeren Ausfällen
+- Einplanen von Reservebedarf
+- Mehr Zeit/Sprints einplanen</t>
+  </si>
+  <si>
+    <t>Kommunikationsprobleme in den Entwicklungsteams</t>
+  </si>
+  <si>
+    <t>Unzureichende Informationen des Auftraggebers</t>
+  </si>
+  <si>
+    <t>Der Code und die Dokumentation der Internet-Agentur werden nicht ausreichend analysiert</t>
+  </si>
+  <si>
+    <t>Es werden Aspekte des Ist-Standes übersehen bzw. nicht im End-Dokument aufgeführt</t>
+  </si>
+  <si>
+    <t>Unzureichende Dokumentation und/oder fehlerhafter Code des bisherigen Intranets</t>
+  </si>
+  <si>
+    <t>Anforderungserhebung nicht vollständig</t>
+  </si>
+  <si>
+    <t>Wichtige Details werden übersehen und führen später im Projekt zu Problemen</t>
+  </si>
+  <si>
+    <t>Die geplante Hardware ist nicht in ausreichendem Ausmaß verfügbar</t>
+  </si>
+  <si>
+    <t>Das Berechtigungskonzept beinhaltet nicht alle notwendigen Berechtigungen</t>
+  </si>
+  <si>
+    <t>Eine Berechtigung hat Zugriff auf nicht notwendige / "verbotene" Bereiche</t>
+  </si>
+  <si>
+    <t>"Ewige" Kompromisssuche zwischen Auftraggeber und Auftragnehmer</t>
+  </si>
+  <si>
+    <t>Die Arbeitspakete sind nicht fein genug definiert</t>
+  </si>
+  <si>
+    <t>Die Abhängigkeiten der Aufgaben im Product-Backlog werden nicht vollständig herausgearbeitet</t>
+  </si>
+  <si>
+    <t>Die Abhängigkeiten im Product-Backlog werden missachtet</t>
+  </si>
+  <si>
+    <t>Auswahl von zu vielen Product-Backlog-Einträgen</t>
+  </si>
+  <si>
+    <t>Unregelmäßig durchgeführtes Refinement</t>
+  </si>
+  <si>
+    <t>Veralteter Backlog, ungeeignet für die Planung von Sprints</t>
+  </si>
+  <si>
+    <t>Kein offenes, konstruktives Feedback im Sprint-Review</t>
+  </si>
+  <si>
+    <t>Keine eindeutige Abgrenzung der Kernsysteme zu Nebensystemen</t>
+  </si>
+  <si>
+    <t>Unzureichender Funktionsumfang der Verwaltungsprozesse</t>
+  </si>
+  <si>
+    <t>Änderungen der Anforderungen während der Implementierungsphase</t>
+  </si>
+  <si>
+    <t>Die Implementierung dauert länger als geplant</t>
+  </si>
+  <si>
+    <t>Unvollständiges Betriebshandbuch</t>
+  </si>
+  <si>
+    <t>Betriebshandbuch ist nicht rechtzeitig zum Rollout fertig</t>
+  </si>
+  <si>
+    <t>Testplan ist nicht ausreichend fein definiert</t>
+  </si>
+  <si>
+    <t>Testfälle sind nicht eindeutig definiert</t>
+  </si>
+  <si>
+    <t>Die Hardware hat nicht die erforderliche Performance für eine Test-Umgebung</t>
+  </si>
+  <si>
+    <t>Testziel unrealistisch definiert</t>
+  </si>
+  <si>
+    <t>Tests unvollständig dokumentiert</t>
+  </si>
+  <si>
+    <t>Testberichte unvollständig</t>
+  </si>
+  <si>
+    <t>Software lässt sich durch Hardwarefehler nicht installieren</t>
+  </si>
+  <si>
+    <t>Software ist inkompatibel</t>
+  </si>
+  <si>
+    <t>Es werden nicht alle Fehler behoben</t>
+  </si>
+  <si>
+    <t>Neue Fehler bei Fehlerbehebung</t>
+  </si>
+  <si>
+    <t>Das Schulungskonzept deckt nicht alle nötigen Features ab</t>
+  </si>
+  <si>
+    <t>Mitarbeiter werden nicht ausreichend geschult</t>
+  </si>
+  <si>
+    <t>Das Schulungskonzept ist qualitativ nicht ausreichend</t>
+  </si>
+  <si>
+    <t>Die Schulung wird nicht nach dem Schulungskonzept durchgeführt</t>
+  </si>
+  <si>
+    <t>Die Schulung ist nicht hilfreich für die Mitarbeiter</t>
+  </si>
+  <si>
+    <t>Nutzerakzeptanzumfrage erreicht nicht alle Mitarbeiter</t>
+  </si>
+  <si>
+    <t>Umfrage wird zu früh ausgewertet</t>
+  </si>
+  <si>
+    <t>Zielgruppe der Umfrage zu klein</t>
+  </si>
+  <si>
+    <t>Fehler oder fehlende Aufzeichnungen bei der Messung der Performanceziele</t>
+  </si>
+  <si>
+    <t>Werte sind verfälscht</t>
+  </si>
+  <si>
+    <t>Nicht genug Zeit und Aufwand für Projektmanagement</t>
+  </si>
+  <si>
+    <t>Es findet kein ausgereiftes Projektmanagement statt</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Q, T</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Q, K</t>
+  </si>
+  <si>
+    <t>Zeitlicher Verzug und Leerlaufzeiten</t>
+  </si>
+  <si>
+    <t>Inkompatible Ergebnisse am Sprintende</t>
+  </si>
+  <si>
+    <t>- Vier-Augen-Prinzip einsetzen
+- Genaues Auseinandersetzen mit dem Auftraggeber, bis Anforderungen ausreichend eindeutig formuliert sind
+- Regelmäßiger Abgleich von Soll und Ist</t>
+  </si>
+  <si>
+    <t>- Vier-Augen-Prinzip einsetzen
+- Aufstellen eines Kommunikationsplans
+- Regelmäßiger Abgleich von Soll und Ist</t>
+  </si>
+  <si>
+    <t>- Genaue Absprache und Vergleich der Arbeitsergebnisse in Daily Scrums</t>
+  </si>
+  <si>
+    <t>Ungenaue Analyse der Risiken, Stakeholder, Vorgehensmodelle</t>
+  </si>
+  <si>
+    <t>Nicht zufriedenstellendes Zwischen/- oder Endprodukt</t>
+  </si>
+  <si>
+    <t>- Klare Projektplanung
 - Auswahl und Einhaltung eines geeigneten Vorgehensmodells
 - Regelmäßige Überprüfung von Soll- und Ist-Zustand
 - Mehr Zeit/Sprints einplanen</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">- Vier-Augen-Prinzip einsetzen
-- Genaues Auseinandersetzen mit dem Auftraggeber, bis Anforderungen ausreichend eindeutig formuliert sind
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Soll und Ist checken</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- Vier-Augen-Prinzip einsetzen
-- Aufstellen eines Kommunikationsplans
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Soll und Ist checken</t>
-    </r>
-  </si>
-  <si>
-    <t>Warten auf Input oder Beteiligung auf Auftraggeberseite</t>
-  </si>
-  <si>
-    <t>- Einstellen externer Kräfte schon bei geringeren Ausfällen
-- Einplanen von Reservebedarf
-- Mehr Zeit/Sprints einplanen</t>
-  </si>
-  <si>
-    <t>Kommunikationsprobleme in den Entwicklungsteams</t>
-  </si>
-  <si>
-    <t>Unzureichende Informationen des Auftraggebers</t>
-  </si>
-  <si>
-    <t>Der Code und die Dokumentation der Internet-Agentur werden nicht ausreichend analysiert</t>
-  </si>
-  <si>
-    <t>Es werden Aspekte des Ist-Standes übersehen bzw. nicht im End-Dokument aufgeführt</t>
-  </si>
-  <si>
-    <t>Unzureichende Dokumentation und/oder fehlerhafter Code des bisherigen Intranets</t>
-  </si>
-  <si>
-    <t>Anforderungserhebung nicht vollständig</t>
-  </si>
-  <si>
-    <t>Wichtige Details werden übersehen und führen später im Projekt zu Problemen</t>
-  </si>
-  <si>
-    <t>Die geplante Hardware ist nicht in ausreichendem Ausmaß verfügbar</t>
-  </si>
-  <si>
-    <t>Das Berechtigungskonzept beinhaltet nicht alle notwendigen Berechtigungen</t>
-  </si>
-  <si>
-    <t>Eine Berechtigung hat Zugriff auf nicht notwendige / "verbotene" Bereiche</t>
-  </si>
-  <si>
-    <t>"Ewige" Kompromisssuche zwischen Auftraggeber und Auftragnehmer</t>
-  </si>
-  <si>
-    <t>Die Arbeitspakete sind nicht fein genug definiert</t>
-  </si>
-  <si>
-    <t>Die Abhängigkeiten der Aufgaben im Product-Backlog werden nicht vollständig herausgearbeitet</t>
-  </si>
-  <si>
-    <t>Die Abhängigkeiten im Product-Backlog werden missachtet</t>
-  </si>
-  <si>
-    <t>Auswahl von zu vielen Product-Backlog-Einträgen</t>
-  </si>
-  <si>
-    <t>Unregelmäßig durchgeführtes Refinement</t>
-  </si>
-  <si>
-    <t>Veralteter Backlog, ungeeignet für die Planung von Sprints</t>
-  </si>
-  <si>
-    <t>Kein offenes, konstruktives Feedback im Sprint-Review</t>
-  </si>
-  <si>
-    <t>Keine eindeutige Abgrenzung der Kernsysteme zu Nebensystemen</t>
-  </si>
-  <si>
-    <t>Unzureichender Funktionsumfang der Verwaltungsprozesse</t>
-  </si>
-  <si>
-    <t>Änderungen der Anforderungen während der Implementierungsphase</t>
-  </si>
-  <si>
-    <t>Die Implementierung dauert länger als geplant</t>
-  </si>
-  <si>
-    <t>Unvollständiges Betriebshandbuch</t>
-  </si>
-  <si>
-    <t>Betriebshandbuch ist nicht rechtzeitig zum Rollout fertig</t>
-  </si>
-  <si>
-    <t>Testplan ist nicht ausreichend fein definiert</t>
-  </si>
-  <si>
-    <t>Testfälle sind nicht eindeutig definiert</t>
-  </si>
-  <si>
-    <t>Die Hardware hat nicht die erforderliche Performance für eine Test-Umgebung</t>
-  </si>
-  <si>
-    <t>Testziel unrealistisch definiert</t>
-  </si>
-  <si>
-    <t>Tests unvollständig dokumentiert</t>
-  </si>
-  <si>
-    <t>Testberichte unvollständig</t>
-  </si>
-  <si>
-    <t>Software lässt sich durch Hardwarefehler nicht installieren</t>
-  </si>
-  <si>
-    <t>Software ist inkompatibel</t>
-  </si>
-  <si>
-    <t>Es werden nicht alle Fehler behoben</t>
-  </si>
-  <si>
-    <t>Neue Fehler bei Fehlerbehebung</t>
-  </si>
-  <si>
-    <t>Das Schulungskonzept deckt nicht alle nötigen Features ab</t>
-  </si>
-  <si>
-    <t>Mitarbeiter werden nicht ausreichend geschult</t>
-  </si>
-  <si>
-    <t>Das Schulungskonzept ist qualitativ nicht ausreichend</t>
-  </si>
-  <si>
-    <t>Die Schulung wird nicht nach dem Schulungskonzept durchgeführt</t>
-  </si>
-  <si>
-    <t>Die Schulung ist nicht hilfreich für die Mitarbeiter</t>
-  </si>
-  <si>
-    <t>Nutzerakzeptanzumfrage erreicht nicht alle Mitarbeiter</t>
-  </si>
-  <si>
-    <t>Umfrage wird zu früh ausgewertet</t>
-  </si>
-  <si>
-    <t>Zielgruppe der Umfrage zu klein</t>
-  </si>
-  <si>
-    <t>Fehler oder fehlende Aufzeichnungen bei der Messung der Performanceziele</t>
-  </si>
-  <si>
-    <t>Werte sind verfälscht</t>
-  </si>
-  <si>
-    <t>Nicht genug Zeit und Aufwand für Projektmanagement</t>
-  </si>
-  <si>
-    <t>Es findet kein ausgereiftes Projektmanagement statt</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>Q, T</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Q, K</t>
+    <t>Lange Antwortzeiten</t>
+  </si>
+  <si>
+    <t>- Möglichkeit für direkten und dringenden Kontakt zum Auftraggeber</t>
+  </si>
+  <si>
+    <t>- Erstellung und Einhaltung eines Pflichtenhefts</t>
+  </si>
+  <si>
+    <t>Zu viel oder zu wenig Implementationsarbeit bei falscher Interpretation des Codes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,6 +385,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -410,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -446,6 +452,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -772,23 +781,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" customWidth="1"/>
-    <col min="8" max="8" width="56.44140625" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="56.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -814,7 +823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -837,10 +846,10 @@
         <v>30</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -848,17 +857,25 @@
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -881,13 +898,13 @@
         <v>29</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -908,10 +925,10 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -932,10 +949,10 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -957,11 +974,11 @@
       <c r="G7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H7" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -981,11 +998,11 @@
         <v>27</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H8" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -993,15 +1010,23 @@
         <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H9" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1021,13 +1046,13 @@
         <v>28</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1035,31 +1060,45 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H11" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1067,7 +1106,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2"/>
@@ -1075,15 +1114,15 @@
       <c r="G13" s="4"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2"/>
@@ -1091,7 +1130,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1099,7 +1138,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2"/>
@@ -1107,15 +1146,15 @@
       <c r="G15" s="4"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
@@ -1123,7 +1162,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1131,7 +1170,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="2"/>
@@ -1139,15 +1178,15 @@
       <c r="G17" s="4"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="2"/>
@@ -1155,15 +1194,15 @@
       <c r="G18" s="4"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="2"/>
@@ -1171,15 +1210,15 @@
       <c r="G19" s="4"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="2"/>
@@ -1187,7 +1226,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1195,7 +1234,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="2"/>
@@ -1203,7 +1242,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1211,7 +1250,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="2"/>
@@ -1219,15 +1258,15 @@
       <c r="G22" s="4"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="2"/>
@@ -1235,7 +1274,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1243,7 +1282,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="2"/>
@@ -1251,31 +1290,31 @@
       <c r="G24" s="4"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="10"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="2"/>
@@ -1283,7 +1322,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1291,7 +1330,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="2"/>
@@ -1299,15 +1338,15 @@
       <c r="G27" s="4"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="2"/>
@@ -1315,7 +1354,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1323,7 +1362,7 @@
         <v>9</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="2"/>
@@ -1331,7 +1370,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1339,7 +1378,7 @@
         <v>8</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="2"/>
@@ -1347,15 +1386,15 @@
       <c r="G30" s="4"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="2"/>
@@ -1363,7 +1402,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1371,7 +1410,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="2"/>
@@ -1379,15 +1418,15 @@
       <c r="G32" s="4"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="2"/>
@@ -1395,15 +1434,15 @@
       <c r="G33" s="4"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="2"/>
@@ -1411,15 +1450,15 @@
       <c r="G34" s="4"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="2"/>
@@ -1427,15 +1466,15 @@
       <c r="G35" s="4"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="2"/>
@@ -1443,15 +1482,15 @@
       <c r="G36" s="4"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="2"/>
@@ -1459,15 +1498,15 @@
       <c r="G37" s="4"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="2"/>
@@ -1475,15 +1514,15 @@
       <c r="G38" s="4"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="2"/>
@@ -1491,15 +1530,15 @@
       <c r="G39" s="4"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="2"/>
@@ -1507,15 +1546,15 @@
       <c r="G40" s="4"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="2"/>
@@ -1523,15 +1562,15 @@
       <c r="G41" s="4"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="2"/>
@@ -1539,33 +1578,33 @@
       <c r="G42" s="4"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="4"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="2"/>
@@ -1573,15 +1612,15 @@
       <c r="G44" s="4"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="2"/>
@@ -1589,15 +1628,15 @@
       <c r="G45" s="4"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="2"/>
@@ -1605,15 +1644,15 @@
       <c r="G46" s="4"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="2"/>
@@ -1621,15 +1660,15 @@
       <c r="G47" s="4"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="2"/>
@@ -1637,15 +1676,15 @@
       <c r="G48" s="4"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="2"/>
@@ -1653,25 +1692,25 @@
       <c r="G49" s="4"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="4"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1679,17 +1718,17 @@
         <v>10</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="4"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="3"/>
@@ -1699,7 +1738,7 @@
       <c r="G52" s="2"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="3"/>
@@ -1709,7 +1748,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="3"/>
@@ -1719,7 +1758,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="3"/>
@@ -1729,7 +1768,7 @@
       <c r="G55" s="4"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3"/>
@@ -1739,7 +1778,7 @@
       <c r="G56" s="4"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="3"/>
@@ -1749,7 +1788,7 @@
       <c r="G57" s="4"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="3"/>
@@ -1759,7 +1798,7 @@
       <c r="G58" s="4"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="3"/>
@@ -1769,7 +1808,7 @@
       <c r="G59" s="4"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="3"/>
@@ -1779,7 +1818,7 @@
       <c r="G60" s="4"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="3"/>
@@ -1789,7 +1828,7 @@
       <c r="G61" s="4"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="3"/>
@@ -1799,7 +1838,7 @@
       <c r="G62" s="4"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="3"/>
@@ -1809,7 +1848,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="3"/>
@@ -1819,7 +1858,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="3"/>
@@ -1829,7 +1868,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="3"/>
@@ -1839,7 +1878,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="3"/>
@@ -1849,7 +1888,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="3"/>
@@ -1859,7 +1898,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="3"/>
@@ -1869,7 +1908,7 @@
       <c r="G69" s="4"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="3"/>
@@ -1879,7 +1918,7 @@
       <c r="G70" s="4"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="3"/>
@@ -1889,7 +1928,7 @@
       <c r="G71" s="4"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="3"/>
@@ -1899,7 +1938,7 @@
       <c r="G72" s="4"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="3"/>
@@ -1909,7 +1948,7 @@
       <c r="G73" s="4"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="3"/>
@@ -1919,7 +1958,7 @@
       <c r="G74" s="4"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="3"/>
@@ -1929,7 +1968,7 @@
       <c r="G75" s="4"/>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="3"/>
@@ -1939,7 +1978,7 @@
       <c r="G76" s="4"/>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="3"/>
@@ -1949,7 +1988,7 @@
       <c r="G77" s="4"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="3"/>
@@ -1959,7 +1998,7 @@
       <c r="G78" s="4"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="3"/>
@@ -1969,7 +2008,7 @@
       <c r="G79" s="4"/>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="3"/>
@@ -1979,7 +2018,7 @@
       <c r="G80" s="4"/>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="3"/>
@@ -1989,7 +2028,7 @@
       <c r="G81" s="4"/>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="3"/>
@@ -1999,7 +2038,7 @@
       <c r="G82" s="4"/>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="3"/>
@@ -2009,7 +2048,7 @@
       <c r="G83" s="4"/>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="3"/>
@@ -2019,7 +2058,7 @@
       <c r="G84" s="4"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="3"/>
@@ -2029,7 +2068,7 @@
       <c r="G85" s="4"/>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="3"/>
@@ -2039,7 +2078,7 @@
       <c r="G86" s="4"/>
       <c r="H86" s="3"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="3"/>
@@ -2049,7 +2088,7 @@
       <c r="G87" s="4"/>
       <c r="H87" s="3"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="3"/>
@@ -2059,7 +2098,7 @@
       <c r="G88" s="4"/>
       <c r="H88" s="3"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="3"/>
@@ -2069,7 +2108,7 @@
       <c r="G89" s="4"/>
       <c r="H89" s="3"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="3"/>
@@ -2079,7 +2118,7 @@
       <c r="G90" s="4"/>
       <c r="H90" s="3"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="3"/>
@@ -2118,24 +2157,24 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>

--- a/ergebnisse/phase_1/Risikoanalyse.xlsx
+++ b/ergebnisse/phase_1/Risikoanalyse.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95F2C33-DE57-4A6B-9C8A-13F134569581}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10366552-879A-4830-AA21-841269F3C2F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,17 +11,22 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="162">
   <si>
     <t>Nr</t>
   </si>
@@ -205,12 +210,6 @@
     <t>Die Arbeitspakete sind nicht fein genug definiert</t>
   </si>
   <si>
-    <t>Die Abhängigkeiten der Aufgaben im Product-Backlog werden nicht vollständig herausgearbeitet</t>
-  </si>
-  <si>
-    <t>Die Abhängigkeiten im Product-Backlog werden missachtet</t>
-  </si>
-  <si>
     <t>Auswahl von zu vielen Product-Backlog-Einträgen</t>
   </si>
   <si>
@@ -241,9 +240,6 @@
     <t>Betriebshandbuch ist nicht rechtzeitig zum Rollout fertig</t>
   </si>
   <si>
-    <t>Testplan ist nicht ausreichend fein definiert</t>
-  </si>
-  <si>
     <t>Testfälle sind nicht eindeutig definiert</t>
   </si>
   <si>
@@ -253,12 +249,6 @@
     <t>Testziel unrealistisch definiert</t>
   </si>
   <si>
-    <t>Tests unvollständig dokumentiert</t>
-  </si>
-  <si>
-    <t>Testberichte unvollständig</t>
-  </si>
-  <si>
     <t>Software lässt sich durch Hardwarefehler nicht installieren</t>
   </si>
   <si>
@@ -287,12 +277,6 @@
   </si>
   <si>
     <t>Nutzerakzeptanzumfrage erreicht nicht alle Mitarbeiter</t>
-  </si>
-  <si>
-    <t>Umfrage wird zu früh ausgewertet</t>
-  </si>
-  <si>
-    <t>Zielgruppe der Umfrage zu klein</t>
   </si>
   <si>
     <t>Fehler oder fehlende Aufzeichnungen bei der Messung der Performanceziele</t>
@@ -359,7 +343,222 @@
     <t>- Erstellung und Einhaltung eines Pflichtenhefts</t>
   </si>
   <si>
-    <t>Zu viel oder zu wenig Implementationsarbeit bei falscher Interpretation des Codes</t>
+    <t>Zusätzliche Arbeit durch zu  viel oder zu wenig Implementationsarbeit bei falscher Interpretation des Codes</t>
+  </si>
+  <si>
+    <t>- Regelmäßiger Abgleich von Soll und Ist
+- Überprüfen des End-Dokuments im Vier-Augen-Prinzip</t>
+  </si>
+  <si>
+    <t>Unvollständige Ist-Analyse</t>
+  </si>
+  <si>
+    <t>- Genug Zeit für die Analyse des existierenden Codes einplanen</t>
+  </si>
+  <si>
+    <t>Zusatzaufwand durch längere Einarbeitungszeit in den bestehenden Code,
+fehlende oder überflüssige Funktionen</t>
+  </si>
+  <si>
+    <t>Andeuten von Meinungsdifferenzen zwischen AG und AN</t>
+  </si>
+  <si>
+    <t>- Chance des Zusatzaufwands von Anfang an einplanen</t>
+  </si>
+  <si>
+    <t>Vermeidbare Zeitverzögerung durch häufige Gespräche</t>
+  </si>
+  <si>
+    <t>- Kompromissbereitschaft zeigen</t>
+  </si>
+  <si>
+    <t>Unvollständiges Produkt</t>
+  </si>
+  <si>
+    <t>- Vier-Augen-Prinzip einsetzen</t>
+  </si>
+  <si>
+    <t>Zusätzliche Arbeit, zusätzliche Kosten</t>
+  </si>
+  <si>
+    <t>- Strukturierte Vorgehensweise
+- Wichtige Details priorisieren</t>
+  </si>
+  <si>
+    <t>- Zweitwahl für Hardware einplanen</t>
+  </si>
+  <si>
+    <t>Es muss minderwertigere oder teurere Hardware als geplant verwendet werden</t>
+  </si>
+  <si>
+    <t>- Vier-Augen-Prinzip</t>
+  </si>
+  <si>
+    <t>Zu wenige Berechtigungen für bestimmte Personen(-gruppen)</t>
+  </si>
+  <si>
+    <t>- Vier-Augen-Prinzip
+- Besondere Beachtung, da hoher Schaden möglich</t>
+  </si>
+  <si>
+    <t>Zu viele Berechtigungen für bestimmte Personen(-gruppen)</t>
+  </si>
+  <si>
+    <t>Zeitliche Verzögerungen und unvollständiges Ergebnis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- </t>
+  </si>
+  <si>
+    <t>Die Abhängigkeiten der Aufgaben im Product-Backlog werden nicht vollständig herausgearbeitet oder missachtet</t>
+  </si>
+  <si>
+    <t>Mehr Sprints nötig als eingeplant</t>
+  </si>
+  <si>
+    <t>Für einen Sprint geplante Arbeitspakete können nicht erledigt werden</t>
+  </si>
+  <si>
+    <t>Ungenaues Ergebnis zum Rollout, erneutes Bearbeiten nötig</t>
+  </si>
+  <si>
+    <t>- Übersichtliche Struktur der Abhängigkeiten</t>
+  </si>
+  <si>
+    <t>- Absprache mit dem Auftraggeber</t>
+  </si>
+  <si>
+    <t>- Regelmäßiges Refinement in die Planung einbeziehen</t>
+  </si>
+  <si>
+    <t>Probleme in der Entwicklung werden zu spät entdeckt</t>
+  </si>
+  <si>
+    <t>Geringe Beteiligung in Sprint-Reviews</t>
+  </si>
+  <si>
+    <t>- Gründliche Planung der Sprints und Arbeitspakete</t>
+  </si>
+  <si>
+    <t>- Teilnahme der Teammitglieder erfordern
+- Feedback-Runden im Sprint-Review</t>
+  </si>
+  <si>
+    <t>Verzögerte Bereitstellung der Kernsystem durch falsche Priorisierung,
+Verzögerung anderer Systeme</t>
+  </si>
+  <si>
+    <t>- Analyse und Priorisierung der geplanten Systeme</t>
+  </si>
+  <si>
+    <t>Erforderliche Kernsysteme sind noch nicht implementiert</t>
+  </si>
+  <si>
+    <t>Unvollständiges Produkt,
+verärgerter Kunde</t>
+  </si>
+  <si>
+    <t>- Anforderungen am Anfang festlegen
+- Änderungen nur zwischen Implementierungsphasen</t>
+  </si>
+  <si>
+    <t>- Einhaltung des Pflichtenhefts</t>
+  </si>
+  <si>
+    <t>Verzögerung der Implementierung</t>
+  </si>
+  <si>
+    <t>Verzögerung des gesamten Projekts</t>
+  </si>
+  <si>
+    <t>- Regelmäßige Überprüfung des Fortschritts</t>
+  </si>
+  <si>
+    <t>Verzögerung der folgenden Phasen</t>
+  </si>
+  <si>
+    <t>Bei den Tests werden Fehler nicht gefunden</t>
+  </si>
+  <si>
+    <t>- Ausreichend Aufwand für Testen einplanen</t>
+  </si>
+  <si>
+    <t>- Testsystem bei Hardware-Auswahl bachten</t>
+  </si>
+  <si>
+    <t>Zeitliche Verzögerung bei Fehlersuche</t>
+  </si>
+  <si>
+    <t>K/T</t>
+  </si>
+  <si>
+    <t>Zeitliche Verzögerung durch langsamere Tests,
+zusätzliche Kosten durch neue oder bessere Hardware</t>
+  </si>
+  <si>
+    <t>- Ausführliche Dokumentation von Tests mit Vier-Augen-Prinzip</t>
+  </si>
+  <si>
+    <t>Testsdokumentationen/-berichte unvollständig</t>
+  </si>
+  <si>
+    <t>- Hardware regelmäßig überprüfen</t>
+  </si>
+  <si>
+    <t>- Software auf servernaher Umgebung testen</t>
+  </si>
+  <si>
+    <t>Überarbeitung der entwickelten Software</t>
+  </si>
+  <si>
+    <t>Zeitliche Verzögerung durch kurzfristige Installation/Wartung</t>
+  </si>
+  <si>
+    <t>Fortschritt langsamer als geplant</t>
+  </si>
+  <si>
+    <t>- Pufferzeit einplanen</t>
+  </si>
+  <si>
+    <t>Fehler ziehen sich durch das Projekt</t>
+  </si>
+  <si>
+    <t>- Bei Fehlerbehebung an Testberichten orientieren</t>
+  </si>
+  <si>
+    <t>Fehlerbehebung dauert länger als geplant</t>
+  </si>
+  <si>
+    <t>- Durch Fehlerbehebung betroffene Funktionen testen</t>
+  </si>
+  <si>
+    <t>- Genaue Einhaltung des Schulungskonzept</t>
+  </si>
+  <si>
+    <t>- Testen des Schulungskonzepts</t>
+  </si>
+  <si>
+    <t>- Prüfung des Schulungskonzepts</t>
+  </si>
+  <si>
+    <t>Schulung rechtfertigt eine Unterbrechung der Arbeit der Mitarbeiter nicht</t>
+  </si>
+  <si>
+    <t>Ergebnisse der Umfrage sind nicht aussagekräftig genug</t>
+  </si>
+  <si>
+    <t>- Ausreichendes Projektmanagement entwickeln und umsetzen</t>
+  </si>
+  <si>
+    <t>Fehler im Projektablauf;
+Überschreitung der Zeit/des Budgets;
+Nicht zufriedenstellende Ergebnisse</t>
+  </si>
+  <si>
+    <t>- Verteilungskonzept für die Umfrage erarbeiten</t>
+  </si>
+  <si>
+    <t>- Mehrfache Messungen durchführen</t>
   </si>
 </sst>
 </file>
@@ -416,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -455,6 +654,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -501,7 +713,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB78BA2E-95A2-40E0-9825-78DC4F07A432}" name="Tabelle1" displayName="Tabelle1" ref="A1:H51" totalsRowShown="0" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB78BA2E-95A2-40E0-9825-78DC4F07A432}" name="Tabelle1" displayName="Tabelle1" ref="A1:H46" totalsRowShown="0" dataDxfId="8">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{EFE9D6C3-BA62-411D-B367-F4976B23181D}" name="Nr" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{CAEFEE30-9963-4A36-8E08-A7A925ADFD39}" name="Kategorie" dataDxfId="6"/>
@@ -779,20 +991,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
     <col min="8" max="8" width="56.42578125" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -860,7 +1072,7 @@
         <v>37</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>27</v>
@@ -869,10 +1081,10 @@
         <v>25</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="135" x14ac:dyDescent="0.25">
@@ -898,7 +1110,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>33</v>
@@ -975,7 +1187,7 @@
         <v>31</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -999,7 +1211,7 @@
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="13" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1013,7 +1225,7 @@
         <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>25</v>
@@ -1023,7 +1235,7 @@
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1046,7 +1258,7 @@
         <v>28</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>36</v>
@@ -1063,7 +1275,7 @@
         <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>25</v>
@@ -1073,21 +1285,21 @@
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>27</v>
@@ -1096,7 +1308,9 @@
         <v>28</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1108,27 +1322,43 @@
       <c r="C13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="D13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="H13" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1140,27 +1370,45 @@
       <c r="C15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="6"/>
+      <c r="D15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="D16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="6"/>
+      <c r="H16" s="6" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1172,561 +1420,759 @@
       <c r="C17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="D17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="D18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="6" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="D19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="D20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="H20" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G21" s="4"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H21" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G22" s="4"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H22" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="E24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8" t="s">
+      <c r="B25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D25" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G27" s="4"/>
-      <c r="H27" s="6"/>
+      <c r="H27" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G28" s="4"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H28" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="6"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="11" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G32" s="4"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H32" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="D36" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="D37" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="D38" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="D39" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="E40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="8"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D44" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="E45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="E46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="6"/>
+      <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
@@ -1735,7 +2181,7 @@
       <c r="D52" s="3"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
+      <c r="G52" s="4"/>
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2077,56 +2523,6 @@
       <c r="F86" s="2"/>
       <c r="G86" s="4"/>
       <c r="H86" s="3"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="3"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="3"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="3"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="3"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2141,7 +2537,7 @@
           <x14:formula1>
             <xm:f>Tabelle2!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:F51</xm:sqref>
+          <xm:sqref>E2:F46</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/ergebnisse/phase_1/Risikoanalyse.xlsx
+++ b/ergebnisse/phase_1/Risikoanalyse.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10366552-879A-4830-AA21-841269F3C2F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AD52BB-C3ED-4CC2-9C85-1BD82A135298}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="166">
   <si>
     <t>Nr</t>
   </si>
@@ -267,9 +267,6 @@
     <t>Mitarbeiter werden nicht ausreichend geschult</t>
   </si>
   <si>
-    <t>Das Schulungskonzept ist qualitativ nicht ausreichend</t>
-  </si>
-  <si>
     <t>Die Schulung wird nicht nach dem Schulungskonzept durchgeführt</t>
   </si>
   <si>
@@ -407,9 +404,6 @@
     <t>Zeitliche Verzögerungen und unvollständiges Ergebnis</t>
   </si>
   <si>
-    <t xml:space="preserve">- </t>
-  </si>
-  <si>
     <t>Die Abhängigkeiten der Aufgaben im Product-Backlog werden nicht vollständig herausgearbeitet oder missachtet</t>
   </si>
   <si>
@@ -559,23 +553,36 @@
   </si>
   <si>
     <t>- Mehrfache Messungen durchführen</t>
+  </si>
+  <si>
+    <t>Tests dauern zu lange</t>
+  </si>
+  <si>
+    <t>Zu viele Testdurchläufe</t>
+  </si>
+  <si>
+    <t>- Testziel bei Verzögerungen neu definieren</t>
+  </si>
+  <si>
+    <t>Umgang mit System ist unklar,
+vermeidebare Fehler treten bei Betrieb des Systems auf</t>
+  </si>
+  <si>
+    <t>- Vier-Augen-Prinzip
+- Ggf. Ergänzung des BHB in Zusammenarbeit mit Systemintegratoren</t>
+  </si>
+  <si>
+    <t>Im Betriebshandbuch fehlen für den Betrieb notwendige Informationen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -635,38 +642,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -713,7 +720,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB78BA2E-95A2-40E0-9825-78DC4F07A432}" name="Tabelle1" displayName="Tabelle1" ref="A1:H46" totalsRowShown="0" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB78BA2E-95A2-40E0-9825-78DC4F07A432}" name="Tabelle1" displayName="Tabelle1" ref="A1:H45" totalsRowShown="0" dataDxfId="8">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{EFE9D6C3-BA62-411D-B367-F4976B23181D}" name="Nr" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{CAEFEE30-9963-4A36-8E08-A7A925ADFD39}" name="Kategorie" dataDxfId="6"/>
@@ -991,25 +998,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="8" width="56.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+    <col min="8" max="8" width="56.44140625" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +1042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1061,7 +1068,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1072,7 +1079,7 @@
         <v>37</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>27</v>
@@ -1081,13 +1088,13 @@
         <v>25</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1110,13 +1117,13 @@
         <v>29</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1140,7 +1147,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1164,7 +1171,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1186,11 +1193,11 @@
       <c r="G7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="H7" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1210,11 +1217,11 @@
         <v>27</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H8" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1225,7 +1232,7 @@
         <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>25</v>
@@ -1235,10 +1242,10 @@
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1258,13 +1265,13 @@
         <v>28</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1275,7 +1282,7 @@
         <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>25</v>
@@ -1285,21 +1292,21 @@
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>27</v>
@@ -1309,10 +1316,10 @@
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1323,7 +1330,7 @@
         <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>25</v>
@@ -1333,21 +1340,21 @@
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>27</v>
@@ -1357,10 +1364,10 @@
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1371,33 +1378,33 @@
         <v>49</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>25</v>
@@ -1407,10 +1414,10 @@
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1421,7 +1428,7 @@
         <v>45</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>26</v>
@@ -1431,21 +1438,21 @@
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>27</v>
@@ -1455,21 +1462,21 @@
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>28</v>
@@ -1479,21 +1486,21 @@
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>26</v>
@@ -1503,21 +1510,21 @@
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>25</v>
@@ -1527,21 +1534,21 @@
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>27</v>
@@ -1551,10 +1558,10 @@
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1565,7 +1572,7 @@
         <v>51</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>25</v>
@@ -1574,48 +1581,48 @@
         <v>27</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="16" t="s">
+      <c r="E24" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="17"/>
+      <c r="G24" s="11"/>
       <c r="H24" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>25</v>
@@ -1624,13 +1631,13 @@
         <v>27</v>
       </c>
       <c r="G25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1641,7 +1648,7 @@
         <v>55</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>25</v>
@@ -1650,24 +1657,24 @@
         <v>27</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>25</v>
@@ -1677,10 +1684,10 @@
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1691,7 +1698,7 @@
         <v>57</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>25</v>
@@ -1701,10 +1708,10 @@
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1715,7 +1722,7 @@
         <v>58</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>25</v>
@@ -1724,31 +1731,39 @@
         <v>25</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="18" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="13">
         <v>29</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="8" t="s">
+      <c r="B30" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D30" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1759,7 +1774,7 @@
         <v>60</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>27</v>
@@ -1768,24 +1783,24 @@
         <v>27</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>25</v>
@@ -1795,21 +1810,21 @@
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>25</v>
@@ -1819,39 +1834,47 @@
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13">
         <v>33</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="C35" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>27</v>
@@ -1861,11 +1884,11 @@
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="14">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1875,7 +1898,7 @@
         <v>64</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>25</v>
@@ -1885,21 +1908,21 @@
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>26</v>
@@ -1909,21 +1932,21 @@
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>27</v>
@@ -1933,21 +1956,21 @@
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="14">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>27</v>
@@ -1957,15 +1980,15 @@
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="8">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>68</v>
@@ -1981,39 +2004,45 @@
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>40</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="8">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="14">
-        <v>41</v>
+      <c r="D41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="8">
+        <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>27</v>
@@ -2026,115 +2055,101 @@
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="14">
-        <v>42</v>
+    <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="8">
+        <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="14">
-        <v>43</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="8">
+        <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="14">
-        <v>44</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A45" s="8">
+        <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" s="4"/>
+      <c r="G45" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="H45" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A46" s="14">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
+      <c r="G47" s="4"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="3"/>
@@ -2144,7 +2159,7 @@
       <c r="G48" s="4"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="3"/>
@@ -2154,7 +2169,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="3"/>
@@ -2164,7 +2179,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="3"/>
@@ -2174,7 +2189,7 @@
       <c r="G51" s="4"/>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="3"/>
@@ -2184,7 +2199,7 @@
       <c r="G52" s="4"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="3"/>
@@ -2194,7 +2209,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="3"/>
@@ -2204,7 +2219,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="3"/>
@@ -2214,7 +2229,7 @@
       <c r="G55" s="4"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3"/>
@@ -2224,7 +2239,7 @@
       <c r="G56" s="4"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="3"/>
@@ -2234,7 +2249,7 @@
       <c r="G57" s="4"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="3"/>
@@ -2244,7 +2259,7 @@
       <c r="G58" s="4"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="3"/>
@@ -2254,7 +2269,7 @@
       <c r="G59" s="4"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="3"/>
@@ -2264,7 +2279,7 @@
       <c r="G60" s="4"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="3"/>
@@ -2274,7 +2289,7 @@
       <c r="G61" s="4"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="3"/>
@@ -2284,7 +2299,7 @@
       <c r="G62" s="4"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="3"/>
@@ -2294,7 +2309,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="3"/>
@@ -2304,7 +2319,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="3"/>
@@ -2314,7 +2329,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="3"/>
@@ -2324,7 +2339,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="3"/>
@@ -2334,7 +2349,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="3"/>
@@ -2344,7 +2359,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="3"/>
@@ -2354,7 +2369,7 @@
       <c r="G69" s="4"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="3"/>
@@ -2364,7 +2379,7 @@
       <c r="G70" s="4"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="3"/>
@@ -2374,7 +2389,7 @@
       <c r="G71" s="4"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="3"/>
@@ -2384,7 +2399,7 @@
       <c r="G72" s="4"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="3"/>
@@ -2394,7 +2409,7 @@
       <c r="G73" s="4"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="3"/>
@@ -2404,7 +2419,7 @@
       <c r="G74" s="4"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="3"/>
@@ -2414,7 +2429,7 @@
       <c r="G75" s="4"/>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="3"/>
@@ -2424,7 +2439,7 @@
       <c r="G76" s="4"/>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="3"/>
@@ -2434,7 +2449,7 @@
       <c r="G77" s="4"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="3"/>
@@ -2444,7 +2459,7 @@
       <c r="G78" s="4"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="3"/>
@@ -2454,7 +2469,7 @@
       <c r="G79" s="4"/>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="3"/>
@@ -2464,7 +2479,7 @@
       <c r="G80" s="4"/>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="3"/>
@@ -2474,7 +2489,7 @@
       <c r="G81" s="4"/>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="3"/>
@@ -2484,7 +2499,7 @@
       <c r="G82" s="4"/>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="3"/>
@@ -2494,7 +2509,7 @@
       <c r="G83" s="4"/>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="3"/>
@@ -2504,7 +2519,7 @@
       <c r="G84" s="4"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="3"/>
@@ -2513,16 +2528,6 @@
       <c r="F85" s="2"/>
       <c r="G85" s="4"/>
       <c r="H85" s="3"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2537,7 +2542,7 @@
           <x14:formula1>
             <xm:f>Tabelle2!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:F46</xm:sqref>
+          <xm:sqref>E2:F45</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2553,24 +2558,24 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>

--- a/ergebnisse/phase_1/Risikoanalyse.xlsx
+++ b/ergebnisse/phase_1/Risikoanalyse.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AD52BB-C3ED-4CC2-9C85-1BD82A135298}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56701F76-C39A-40C9-AD5A-CE0E9853AE86}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="165">
   <si>
     <t>Nr</t>
   </si>
@@ -38,12 +38,6 @@
   </si>
   <si>
     <t>Mögliche Folgen / Tragweite</t>
-  </si>
-  <si>
-    <t>Schadenshöhe</t>
-  </si>
-  <si>
-    <t>Eintrittswahrscheinlichkeit</t>
   </si>
   <si>
     <t>Eintrittsindikatoren</t>
@@ -127,32 +121,6 @@
   </si>
   <si>
     <t>Zeitlicher Verzug, Budgetüberschreitung, schlechteres Ergebnis</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Kategorien:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-T = Zeit
-K = Kosten
-Q = Qualität</t>
-    </r>
   </si>
   <si>
     <t>- Einbindung der Geschäftsführung fest einplanen</t>
@@ -573,22 +541,22 @@
   </si>
   <si>
     <t>Im Betriebshandbuch fehlen für den Betrieb notwendige Informationen</t>
+  </si>
+  <si>
+    <t>Eintrittswahr-
+scheinlichkeit</t>
+  </si>
+  <si>
+    <t>Schadens-
+höhe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -639,25 +607,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -674,36 +639,152 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -720,16 +801,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB78BA2E-95A2-40E0-9825-78DC4F07A432}" name="Tabelle1" displayName="Tabelle1" ref="A1:H45" totalsRowShown="0" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB78BA2E-95A2-40E0-9825-78DC4F07A432}" name="Tabelle1" displayName="Tabelle1" ref="A1:H45" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{EFE9D6C3-BA62-411D-B367-F4976B23181D}" name="Nr" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{CAEFEE30-9963-4A36-8E08-A7A925ADFD39}" name="Kategorie" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{93AC5BDB-D599-4567-B026-27A79C048DAE}" name="Risikobezeichnung" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{8073ED10-2B18-4A59-97DD-278FC9824AFF}" name="Mögliche Folgen / Tragweite" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{F0B86906-4E29-4419-8E4A-4CE2B840B4D9}" name="Schadenshöhe" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{DBDD93D3-B9F1-4E72-8252-E4059CC26A99}" name="Eintrittswahrscheinlichkeit" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{C0E41586-C2E7-435C-A6FA-19AB5C2AE027}" name="Eintrittsindikatoren" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{A3268568-F7FE-435A-A115-C9F57AE007BA}" name="Gegenmaßnahmen" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{EFE9D6C3-BA62-411D-B367-F4976B23181D}" name="Nr" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{CAEFEE30-9963-4A36-8E08-A7A925ADFD39}" name="Kategorie" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{93AC5BDB-D599-4567-B026-27A79C048DAE}" name="Risikobezeichnung" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{8073ED10-2B18-4A59-97DD-278FC9824AFF}" name="Mögliche Folgen / Tragweite" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{F0B86906-4E29-4419-8E4A-4CE2B840B4D9}" name="Schadens-_x000a_höhe" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{DBDD93D3-B9F1-4E72-8252-E4059CC26A99}" name="Eintrittswahr-_x000a_scheinlichkeit" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{C0E41586-C2E7-435C-A6FA-19AB5C2AE027}" name="Eintrittsindikatoren" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{A3268568-F7FE-435A-A115-C9F57AE007BA}" name="Gegenmaßnahmen" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1000,1136 +1081,1135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H45" sqref="A1:H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" customWidth="1"/>
-    <col min="8" max="8" width="56.44140625" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="41.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>24</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>25</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>26</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
         <v>27</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="B28" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
         <v>30</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="B31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>31</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>32</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>33</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="15"/>
+      <c r="H35" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="15"/>
+      <c r="H36" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="15"/>
+      <c r="H37" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="15"/>
+      <c r="H38" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B39" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="15"/>
+      <c r="H39" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="15"/>
+      <c r="H40" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>41</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="15"/>
+      <c r="H41" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>42</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="15"/>
+      <c r="H42" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>43</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="15"/>
+      <c r="H43" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>44</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="15"/>
+      <c r="H44" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>45</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C45" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="18" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="13">
-        <v>29</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13">
-        <v>33</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="8">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="8">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="8">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="8">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="8">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="8">
-        <v>41</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="8">
-        <v>42</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="G45" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="6" t="s">
+      <c r="H45" s="16" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="8">
-        <v>43</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="8">
-        <v>44</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A45" s="8">
-        <v>45</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="3"/>
@@ -2139,7 +2219,7 @@
       <c r="G46" s="2"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="3"/>
@@ -2149,7 +2229,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="3"/>
@@ -2159,7 +2239,7 @@
       <c r="G48" s="4"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="3"/>
@@ -2169,7 +2249,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="3"/>
@@ -2179,7 +2259,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="3"/>
@@ -2189,7 +2269,7 @@
       <c r="G51" s="4"/>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="3"/>
@@ -2199,7 +2279,7 @@
       <c r="G52" s="4"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="3"/>
@@ -2209,7 +2289,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="3"/>
@@ -2219,7 +2299,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="3"/>
@@ -2229,7 +2309,7 @@
       <c r="G55" s="4"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3"/>
@@ -2239,7 +2319,7 @@
       <c r="G56" s="4"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="3"/>
@@ -2249,7 +2329,7 @@
       <c r="G57" s="4"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="3"/>
@@ -2259,7 +2339,7 @@
       <c r="G58" s="4"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="3"/>
@@ -2269,7 +2349,7 @@
       <c r="G59" s="4"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="3"/>
@@ -2279,7 +2359,7 @@
       <c r="G60" s="4"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="3"/>
@@ -2289,7 +2369,7 @@
       <c r="G61" s="4"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="3"/>
@@ -2299,7 +2379,7 @@
       <c r="G62" s="4"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="3"/>
@@ -2309,7 +2389,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="3"/>
@@ -2319,7 +2399,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="3"/>
@@ -2329,7 +2409,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="3"/>
@@ -2339,7 +2419,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="3"/>
@@ -2349,7 +2429,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="3"/>
@@ -2359,7 +2439,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="3"/>
@@ -2369,7 +2449,7 @@
       <c r="G69" s="4"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="3"/>
@@ -2379,7 +2459,7 @@
       <c r="G70" s="4"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="3"/>
@@ -2389,7 +2469,7 @@
       <c r="G71" s="4"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="3"/>
@@ -2399,7 +2479,7 @@
       <c r="G72" s="4"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="3"/>
@@ -2409,7 +2489,7 @@
       <c r="G73" s="4"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="3"/>
@@ -2419,7 +2499,7 @@
       <c r="G74" s="4"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="3"/>
@@ -2429,7 +2509,7 @@
       <c r="G75" s="4"/>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="3"/>
@@ -2439,7 +2519,7 @@
       <c r="G76" s="4"/>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="3"/>
@@ -2449,7 +2529,7 @@
       <c r="G77" s="4"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="3"/>
@@ -2459,7 +2539,7 @@
       <c r="G78" s="4"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="3"/>
@@ -2469,7 +2549,7 @@
       <c r="G79" s="4"/>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="3"/>
@@ -2479,7 +2559,7 @@
       <c r="G80" s="4"/>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="3"/>
@@ -2489,7 +2569,7 @@
       <c r="G81" s="4"/>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="3"/>
@@ -2499,7 +2579,7 @@
       <c r="G82" s="4"/>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="3"/>
@@ -2509,7 +2589,7 @@
       <c r="G83" s="4"/>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="3"/>
@@ -2519,7 +2599,7 @@
       <c r="G84" s="4"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="3"/>
@@ -2531,7 +2611,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -2558,26 +2638,26 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
